--- a/test0-ps-save-for-web/dssim.xlsx
+++ b/test0-ps-save-for-web/dssim.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnewton/Sites/gh/image-resize-tests/test0-ps-save-for-web/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ddsim-optimized.tsv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="246">
   <si>
     <t>File</t>
   </si>
@@ -391,13 +396,379 @@
   </si>
   <si>
     <t>./300-optimized/6E.jpg</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>Unoptimized</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1A-1.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1A-2.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1A-3.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1B-1.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1B-2.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1B-3.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1C-1.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1C-2.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/1C-3.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2A-1.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2A-2.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2A-3.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2B-1.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2B-2.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2B-3.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2C-1.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2C-2.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/2C-3.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3A-1.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3A-2.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3A-3.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3B-1.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3B-2.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3B-3.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3C-1.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3C-2.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/3C-3.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4A-1.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4A-2.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4A-3.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4B-1.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4B-2.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4B-3.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4C-1.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4C-2.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/4C-3.png</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/6D.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/6E.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/6F.jpg</t>
+  </si>
+  <si>
+    <t>./1200-unoptimized/6G.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1A-1.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1A-2.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1A-3.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1B-1.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1B-2.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1B-3.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1C-1.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1C-2.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/1C-3.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2A-1.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2A-2.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2A-3.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2B-1.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2B-2.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2B-3.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2C-1.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2C-2.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/2C-3.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3A-1.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3A-2.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3A-3.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3B-1.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3B-2.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3B-3.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3C-1.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3C-2.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/3C-3.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4A-1.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4A-2.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4A-3.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4B-1.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4B-2.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4B-3.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4C-1.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4C-2.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/4C-3.png</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/6D.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/6E.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/6F.jpg</t>
+  </si>
+  <si>
+    <t>./300-unoptimized/6G.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1A-1.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1A-2.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1A-3.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1B-1.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1B-2.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1B-3.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1C-1.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1C-2.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/1C-3.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2A-1.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2A-2.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2A-3.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2B-1.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2B-2.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2B-3.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2C-1.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2C-2.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/2C-3.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3A-1.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3A-2.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3A-3.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3B-1.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3B-2.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3B-3.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3C-1.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3C-2.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/3C-3.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4A-1.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4A-2.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4A-3.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4B-1.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4B-2.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4B-3.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4C-1.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4C-2.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/4C-3.png</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/6D.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/6E.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/6F.jpg</t>
+  </si>
+  <si>
+    <t>./600-unoptimized/6G.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +798,20 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -527,7 +912,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -553,8 +938,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -567,8 +956,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -581,6 +972,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -593,10 +986,17 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -922,1015 +1322,1758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="2" customFormat="1">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="12">
+        <v>2.12E-4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="12">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="12">
+        <v>1.8263000000000001E-2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="12">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="12">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="12">
+        <v>1.2978999999999999E-2</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="4">
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="12">
+        <v>1.18E-4</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="12">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="12">
+        <v>1.46E-4</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="4">
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
         <v>1.18E-4</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="12">
+        <v>1.18E-4</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="4">
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4">
         <v>2.8E-5</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="12">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="12">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="12">
+        <v>8.5780000000000006E-3</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="12">
+        <v>5.9100000000000005E-4</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="12">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="12">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="12">
+        <v>1.5044E-2</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="4">
-        <v>0</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="4">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="4">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="4">
+      <c r="D58" s="12">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="4">
+      <c r="D59" s="12">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="12">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="4">
-        <v>0</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="4">
-        <v>0</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="4">
-        <v>0</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="12">
+        <v>1.1759E-2</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="4">
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="4">
         <v>1.1E-5</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="4">
-        <v>0</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="12">
+        <v>6.6100000000000002E-4</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="4">
-        <v>0</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="12">
+        <v>1.405E-3</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="4">
+      <c r="D69" s="12">
+        <v>1.7420000000000001E-3</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="4">
         <v>1.8E-5</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="4">
-        <v>0</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="D70" s="12">
+        <v>4.2900000000000002E-4</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="4">
-        <v>0</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="4">
+      <c r="D72" s="12">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="4">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="12">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="4">
-        <v>0</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="4">
+      <c r="D75" s="12">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4">
         <v>2.14E-4</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="4">
-        <v>0</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="D76" s="12">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="4">
+      <c r="D77" s="12">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="E77" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="4">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="4">
+      <c r="D78" s="12">
+        <v>1.16E-4</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="4">
         <v>1.485E-3</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="4">
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="4">
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="4">
-        <v>0</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="12">
+        <v>5.019E-3</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="4">
-        <v>0</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="4">
-        <v>0</v>
-      </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="12">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="4">
-        <v>0</v>
-      </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="12">
+        <v>0</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="4">
-        <v>0</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="D85" s="12">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="4">
-        <v>0</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="4">
-        <v>0</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="4">
-        <v>0</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="4">
-        <v>0</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="12">
+        <v>3.28E-4</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="4">
-        <v>0</v>
-      </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="12">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="4">
-        <v>0</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="D91" s="12">
+        <v>1.8E-5</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="4">
-        <v>0</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="D92" s="12">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="4">
-        <v>0</v>
-      </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="12">
+        <v>0</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="4">
-        <v>0</v>
-      </c>
-      <c r="C94" s="8" t="s">
+      <c r="D94" s="12">
+        <v>1.7302000000000001E-2</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="4">
-        <v>0</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="D95" s="12">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="4">
-        <v>0</v>
-      </c>
-      <c r="C96" s="8" t="s">
+      <c r="D96" s="12">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="4">
-        <v>0</v>
-      </c>
-      <c r="C97" s="8" t="s">
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="4">
+      <c r="D98" s="12">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="4">
-        <v>0</v>
-      </c>
-      <c r="C99" s="8" t="s">
+      <c r="D99" s="12">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="4">
-        <v>0</v>
-      </c>
-      <c r="C100" s="8" t="s">
+      <c r="D100" s="12">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="4">
-        <v>0</v>
-      </c>
-      <c r="C101" s="8" t="s">
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="4">
-        <v>0</v>
-      </c>
-      <c r="C102" s="8" t="s">
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="4">
-        <v>0</v>
-      </c>
-      <c r="C103" s="8" t="s">
+      <c r="D103" s="12">
+        <v>0</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="4">
-        <v>0</v>
-      </c>
-      <c r="C104" s="8" t="s">
+      <c r="D104" s="12">
+        <v>1.2760000000000001E-2</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="4">
-        <v>0</v>
-      </c>
-      <c r="C105" s="8" t="s">
+      <c r="D105" s="12">
+        <v>0</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="4">
+      <c r="D106" s="12">
+        <v>0</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="4">
-        <v>0</v>
-      </c>
-      <c r="C107" s="8" t="s">
+      <c r="D107" s="12">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="4">
-        <v>0</v>
-      </c>
-      <c r="C108" s="8" t="s">
+      <c r="D108" s="12">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="4">
+      <c r="D109" s="12">
+        <v>5.8399999999999999E-4</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="4">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="4">
-        <v>0</v>
-      </c>
-      <c r="C110" s="8" t="s">
+      <c r="D110" s="12">
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="4">
-        <v>0</v>
-      </c>
-      <c r="C111" s="8" t="s">
+      <c r="D111" s="12">
+        <v>0</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="4">
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="4">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="B113" s="4">
-        <v>0</v>
-      </c>
-      <c r="C113" s="8" t="s">
+      <c r="D113" s="12">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="B114" s="4">
-        <v>0</v>
-      </c>
-      <c r="C114" s="8" t="s">
+      <c r="D114" s="12">
+        <v>0</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="B115" s="4">
+      <c r="D115" s="12">
+        <v>0</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="4">
         <v>8.3999999999999995E-5</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="B116" s="4">
-        <v>0</v>
-      </c>
-      <c r="C116" s="8" t="s">
+      <c r="D116" s="12">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="B117" s="4">
+      <c r="D117" s="12">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="E117" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="B118" s="4">
-        <v>0</v>
-      </c>
-      <c r="C118" s="8" t="s">
+      <c r="D118" s="12">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="B119" s="4">
-        <v>0</v>
-      </c>
-      <c r="C119" s="8" t="s">
+      <c r="D119" s="12">
+        <v>0</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="B120" s="4">
-        <v>0</v>
-      </c>
-      <c r="C120" s="8" t="s">
+      <c r="D120" s="12">
+        <v>6.0200000000000002E-3</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="B121" s="4">
-        <v>0</v>
-      </c>
-      <c r="C121" s="8" t="s">
+      <c r="D121" s="12">
+        <v>0</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" s="9" customFormat="1">
-      <c r="A122" s="9" t="s">
+      <c r="D122" s="12">
+        <v>0</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="10">
-        <f>AVERAGE(B2:B121)</f>
+      <c r="B123" s="10">
+        <f>AVERAGE(B3:B122)</f>
         <v>2.1333333333333335E-5</v>
       </c>
-      <c r="C122" s="11"/>
-    </row>
-    <row r="123" spans="1:3" s="1" customFormat="1">
-      <c r="A123" s="1" t="s">
+      <c r="C123" s="11"/>
+      <c r="D123" s="10">
+        <f>AVERAGE(D3:D122)</f>
+        <v>9.7228333333333348E-4</v>
+      </c>
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="3">
-        <f>MEDIAN(B2:B121)</f>
-        <v>0</v>
-      </c>
-      <c r="C123" s="6"/>
+      <c r="B124" s="3">
+        <f>MEDIAN(B3:B122)</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="3">
+        <f>MEDIAN(D3:D122)</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>